--- a/xlsx/理察·斯托曼_intext.xlsx
+++ b/xlsx/理察·斯托曼_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="607">
   <si>
     <t>理察·斯托曼</t>
   </si>
@@ -29,7 +29,7 @@
     <t>en-Richard Stallman</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_理察·斯托曼</t>
+    <t>政策_政策_维基百科_理察·斯托曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
+    <t>麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BD%AF%E4%BB%B6%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>維基媒體國際大會</t>
+    <t>维基媒体国际大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E5%BA%8F%E5%91%98</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B%E8%8F%B2%E5%8B%92%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>洛克菲勒大學</t>
+    <t>洛克菲勒大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B3%BB</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/APL%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>APL語言</t>
+    <t>APL语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IBM_System/360</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E6%8B%89%E5%BE%B7%C2%B7%E5%82%91%E4%BC%8A%C2%B7%E8%96%A9%E6%96%AF%E6%9B%BC</t>
   </si>
   <si>
-    <t>傑拉德·傑伊·薩斯曼</t>
+    <t>杰拉德·杰伊·萨斯曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%9D%9F%E8%A1%A5%E5%81%BF%E9%97%AE%E9%A2%98</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/MIT%E8%A8%88%E7%AE%97%E6%A9%9F%E7%A7%91%E5%AD%B8%E8%88%87%E4%BA%BA%E5%B7%A5%E6%99%BA%E6%85%A7%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>MIT計算機科學與人工智慧實驗室</t>
+    <t>MIT计算机科学与人工智慧实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%9C%AC%E7%BC%96%E8%BE%91%E5%99%A8</t>
@@ -299,13 +299,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E9%AB%98%E7%AD%89%E7%A0%94%E7%A9%B6%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>國防高等研究計劃署</t>
+    <t>国防高等研究计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A7%AD%E5%AE%A2%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>駭客文化</t>
+    <t>骇客文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E6%9C%89%E8%BD%AF%E4%BB%B6</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/GNU%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>GNU計劃</t>
+    <t>GNU计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Linux%E5%86%85%E6%A0%B8</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%B4%8D%E6%96%AF%C2%B7%E6%89%98%E7%93%A6%E8%8C%B2</t>
   </si>
   <si>
-    <t>林納斯·托瓦茲</t>
+    <t>林纳斯·托瓦兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GNU/Linux</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/GNU/Linux%E5%91%BD%E5%90%8D%E7%88%AD%E8%AD%B0</t>
   </si>
   <si>
-    <t>GNU/Linux命名爭議</t>
+    <t>GNU/Linux命名争议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E6%BA%90%E4%BB%A3%E7%A0%81</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E8%8A%AF</t>
   </si>
   <si>
-    <t>龍芯</t>
+    <t>龙芯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%85%8B%E9%98%BF%E7%91%9F%E5%A5%96</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>蘇格蘭</t>
+    <t>苏格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E6%96%AF%E5%93%A5%E5%A4%A7%E5%AD%A6</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%95%E9%AD%AF</t>
   </si>
   <si>
-    <t>祕魯</t>
+    <t>祕鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E7%AB%8B%E7%A7%91%E5%B0%94%E5%A4%9A%E7%93%A6%E5%A4%A7%E5%AD%A6</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/GNU_C_%E5%87%BD%E5%BC%8F%E5%BA%AB</t>
   </si>
   <si>
-    <t>GNU C 函式庫</t>
+    <t>GNU C 函式库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Bash</t>
@@ -713,13 +713,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E8%83%BD%E9%AE%91%E5%A7%86-%E6%89%98%E7%93%A6%E8%8C%B2%E8%BE%AF%E8%AB%96</t>
   </si>
   <si>
-    <t>塔能鮑姆-托瓦茲辯論</t>
+    <t>塔能鲍姆-托瓦兹辩论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SCO-Linux%E7%88%AD%E8%AD%B0</t>
   </si>
   <si>
-    <t>SCO-Linux爭議</t>
+    <t>SCO-Linux争议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Linux%E5%8F%91%E8%A1%8C%E7%89%88</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/Linux%E7%9A%84%E6%8E%A1%E7%94%A8</t>
   </si>
   <si>
-    <t>Linux的採用</t>
+    <t>Linux的采用</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Criticism_of_Linux</t>
@@ -833,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E6%A1%8C%E9%9D%A2Linux%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對桌面Linux的批評</t>
+    <t>对桌面Linux的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Linux</t>
@@ -959,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%80%AB%C2%B7%E8%80%83%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>艾倫·考克斯</t>
+    <t>艾伦·考克斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Allison_Randal</t>
@@ -971,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E8%8E%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>安德魯·莫頓</t>
+    <t>安德鲁·莫顿</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Benjamin_Mako_Hill</t>
@@ -1001,13 +1001,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E7%B1%B3%E5%8B%92_(%E7%A8%8B%E5%BC%8F%E5%93%A1)</t>
   </si>
   <si>
-    <t>大衛·米勒 (程式員)</t>
+    <t>大卫·米勒 (程式员)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E9%9B%B7%E6%A0%BC%C2%B7%E5%85%8B%E7%BE%85%E5%93%88%E6%9B%BC</t>
   </si>
   <si>
-    <t>葛雷格·克羅哈曼</t>
+    <t>葛雷格·克罗哈曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%81%A9%C2%B7%E9%BB%98%E5%A4%9A%E5%85%8B</t>
@@ -1037,9 +1037,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%BA%B3%E6%96%AF%C2%B7%E6%89%98%E7%93%A6%E5%85%B9</t>
   </si>
   <si>
-    <t>林纳斯·托瓦兹</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%85%8B%C2%B7%E9%9B%B7%E8%92%99</t>
   </si>
   <si>
@@ -1079,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%96%87%E5%8C%96%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>自由文化運動</t>
+    <t>自由文化运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E4%BC%97%E7%A7%91%E5%AD%A6</t>
@@ -1103,13 +1100,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%BC%8F%E5%8D%94%E5%90%8C%E5%90%88%E4%BD%9C</t>
   </si>
   <si>
-    <t>開放式協同合作</t>
+    <t>开放式协同合作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%85%A7%E5%AE%B9</t>
   </si>
   <si>
-    <t>開放內容</t>
+    <t>开放内容</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Open_communication</t>
@@ -1121,7 +1118,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E8%B3%87%E6%96%99</t>
   </si>
   <si>
-    <t>開放資料</t>
+    <t>开放资料</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Open_design</t>
@@ -1169,7 +1166,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>開放科學</t>
+    <t>开放科学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Opensource_Architecture</t>
@@ -1193,7 +1190,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%BA%90%E7%A1%AC%E4%BB%B6</t>
   </si>
   <si>
-    <t>開源硬件</t>
+    <t>开源硬件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E6%A0%87%E5%87%86</t>
@@ -1211,7 +1208,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%A9%A6%E5%85%A5%E5%AD%B8</t>
   </si>
   <si>
-    <t>免試入學</t>
+    <t>免试入学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BEWeb</t>
@@ -1229,7 +1226,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%95%99%E8%82%B2%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>開放教育資源</t>
+    <t>开放教育资源</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Open_Music_Model</t>
@@ -1283,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E8%87%AA%E7%94%B1%E6%B3%95%E5%BE%8B%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>軟體自由法律中心</t>
+    <t>软体自由法律中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%A7%91%E5%AD%A6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1313,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E8%90%8A%E6%96%AF%E6%A0%BC</t>
   </si>
   <si>
-    <t>勞倫斯·萊斯格</t>
+    <t>劳伦斯·莱斯格</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Peter_Murray-Rust</t>
@@ -1367,19 +1364,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF%E5%90%8D%E4%BA%BA%E5%A0%82</t>
   </si>
   <si>
-    <t>網際網路名人堂</t>
+    <t>网际网路名人堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%B7%B4%E8%98%AD</t>
   </si>
   <si>
-    <t>保羅·巴蘭</t>
+    <t>保罗·巴兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E9%A0%93%C2%B7%E7%91%9F%E5%A4%AB</t>
   </si>
   <si>
-    <t>文頓·瑟夫</t>
+    <t>文顿·瑟夫</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Danny_Cohen_(engineer)</t>
@@ -1391,7 +1388,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E5%85%8B%E7%BE%85%E5%85%8B</t>
   </si>
   <si>
-    <t>史蒂芬·克羅克</t>
+    <t>史蒂芬·克罗克</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Donald_Davies</t>
@@ -1415,7 +1412,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A1%E6%81%A9</t>
   </si>
   <si>
-    <t>羅伯特·卡恩</t>
+    <t>罗伯特·卡恩</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Peter_T._Kirstein</t>
@@ -1439,13 +1436,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%81%A9%C2%B7%E6%B3%A2%E6%96%AF%E7%89%B9%E7%88%BE</t>
   </si>
   <si>
-    <t>喬恩·波斯特爾</t>
+    <t>乔恩·波斯特尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E6%99%AE%E8%B4%8A</t>
   </si>
   <si>
-    <t>路易斯·普贊</t>
+    <t>路易斯·普赞</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lawrence_Roberts_(scientist)</t>
@@ -1475,7 +1472,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E6%A2%85%E7%89%B9%E5%8D%A1%E5%A4%AB</t>
   </si>
   <si>
-    <t>羅伯特·梅特卡夫</t>
+    <t>罗伯特·梅特卡夫</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jun_Murai</t>
@@ -1517,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%88%BE%E7%B4%8D%C2%B7%E6%8E%AA%E6%81%A9</t>
   </si>
   <si>
-    <t>維爾納·措恩</t>
+    <t>维尔纳·措恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%C2%B7%E6%81%A9%E6%A0%BC%E5%B0%94%E5%B7%B4%E7%89%B9</t>
@@ -1571,7 +1568,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E6%96%AF%E7%89%B9%C2%B7%E5%8D%A1%E5%88%A9</t>
   </si>
   <si>
-    <t>布魯斯特·卡利</t>
+    <t>布鲁斯特·卡利</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/Daniel_Karrenberg</t>
@@ -1583,7 +1580,7 @@
     <t>https://ja.wikipedia.org/wiki/%E9%AB%98%E6%A9%8B%E5%BE%B9_(%E3%83%8D%E3%83%83%E3%83%88%E3%83%AF%E3%83%BC%E3%82%AF%E7%A0%94%E7%A9%B6%E8%80%85)</t>
   </si>
   <si>
-    <t>ja-高橋徹 (ネットワーク研究者)</t>
+    <t>ja-高桥彻 (ネットワーク研究者)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Karen_Banks</t>
@@ -1649,7 +1646,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%88%87%E7%88%BE%C2%B7%E8%B2%9D%E5%85%8B</t>
   </si>
   <si>
-    <t>米切爾·貝克</t>
+    <t>米切尔·贝克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A1%E9%87%8C%E5%A5%A5</t>
@@ -1685,13 +1682,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%C2%B7%E6%B9%AF%E5%A7%86%E6%9E%97%E6%A3%AE</t>
   </si>
   <si>
-    <t>雷·湯姆林森</t>
+    <t>雷·汤姆林森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E7%88%BE%C2%B7%E9%BD%8A%E9%BB%98%E7%88%BE%E6%9B%BC</t>
   </si>
   <si>
-    <t>菲爾·齊默爾曼</t>
+    <t>菲尔·齐默尔曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%C2%B7%E5%AE%89%E5%BE%B7%E6%A3%AE</t>
@@ -1733,7 +1730,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>吉米·威爾斯</t>
+    <t>吉米·威尔斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eric_Allman</t>
@@ -1745,7 +1742,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%85%8B%C2%B7%E6%AF%94%E7%B4%8D</t>
   </si>
   <si>
-    <t>埃里克·比納</t>
+    <t>埃里克·比纳</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Karlheinz_Brandenburg</t>
@@ -1769,7 +1766,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1787,7 +1784,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1799,7 +1796,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1817,7 +1814,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E5%9B%BE%E4%B9%A6%E9%A6%86%E8%81%94%E5%90%88%E7%9B%AE%E5%BD%95%E4%B8%AD%E5%A4%AE%E7%A0%94%E7%A9%B6%E6%89%80</t>
@@ -7313,7 +7310,7 @@
         <v>339</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7339,10 +7336,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>340</v>
+      </c>
+      <c r="F178" t="s">
         <v>341</v>
-      </c>
-      <c r="F178" t="s">
-        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7368,10 +7365,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>342</v>
+      </c>
+      <c r="F179" t="s">
         <v>343</v>
-      </c>
-      <c r="F179" t="s">
-        <v>344</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7397,10 +7394,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>344</v>
+      </c>
+      <c r="F180" t="s">
         <v>345</v>
-      </c>
-      <c r="F180" t="s">
-        <v>346</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7426,10 +7423,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>346</v>
+      </c>
+      <c r="F181" t="s">
         <v>347</v>
-      </c>
-      <c r="F181" t="s">
-        <v>348</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7455,10 +7452,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>348</v>
+      </c>
+      <c r="F182" t="s">
         <v>349</v>
-      </c>
-      <c r="F182" t="s">
-        <v>350</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7484,10 +7481,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>350</v>
+      </c>
+      <c r="F183" t="s">
         <v>351</v>
-      </c>
-      <c r="F183" t="s">
-        <v>352</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7513,10 +7510,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>352</v>
+      </c>
+      <c r="F184" t="s">
         <v>353</v>
-      </c>
-      <c r="F184" t="s">
-        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -7542,10 +7539,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>354</v>
+      </c>
+      <c r="F185" t="s">
         <v>355</v>
-      </c>
-      <c r="F185" t="s">
-        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7571,10 +7568,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>356</v>
+      </c>
+      <c r="F186" t="s">
         <v>357</v>
-      </c>
-      <c r="F186" t="s">
-        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7600,10 +7597,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>358</v>
+      </c>
+      <c r="F187" t="s">
         <v>359</v>
-      </c>
-      <c r="F187" t="s">
-        <v>360</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7629,10 +7626,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>360</v>
+      </c>
+      <c r="F188" t="s">
         <v>361</v>
-      </c>
-      <c r="F188" t="s">
-        <v>362</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7658,10 +7655,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>362</v>
+      </c>
+      <c r="F189" t="s">
         <v>363</v>
-      </c>
-      <c r="F189" t="s">
-        <v>364</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7687,10 +7684,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>364</v>
+      </c>
+      <c r="F190" t="s">
         <v>365</v>
-      </c>
-      <c r="F190" t="s">
-        <v>366</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7716,10 +7713,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>366</v>
+      </c>
+      <c r="F191" t="s">
         <v>367</v>
-      </c>
-      <c r="F191" t="s">
-        <v>368</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7745,10 +7742,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>368</v>
+      </c>
+      <c r="F192" t="s">
         <v>369</v>
-      </c>
-      <c r="F192" t="s">
-        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7774,10 +7771,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>370</v>
+      </c>
+      <c r="F193" t="s">
         <v>371</v>
-      </c>
-      <c r="F193" t="s">
-        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7803,10 +7800,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>372</v>
+      </c>
+      <c r="F194" t="s">
         <v>373</v>
-      </c>
-      <c r="F194" t="s">
-        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7832,10 +7829,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>374</v>
+      </c>
+      <c r="F195" t="s">
         <v>375</v>
-      </c>
-      <c r="F195" t="s">
-        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7861,10 +7858,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>376</v>
+      </c>
+      <c r="F196" t="s">
         <v>377</v>
-      </c>
-      <c r="F196" t="s">
-        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7890,10 +7887,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>378</v>
+      </c>
+      <c r="F197" t="s">
         <v>379</v>
-      </c>
-      <c r="F197" t="s">
-        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7919,10 +7916,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>380</v>
+      </c>
+      <c r="F198" t="s">
         <v>381</v>
-      </c>
-      <c r="F198" t="s">
-        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7948,10 +7945,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>382</v>
+      </c>
+      <c r="F199" t="s">
         <v>383</v>
-      </c>
-      <c r="F199" t="s">
-        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7977,10 +7974,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>384</v>
+      </c>
+      <c r="F200" t="s">
         <v>385</v>
-      </c>
-      <c r="F200" t="s">
-        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8006,10 +8003,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>386</v>
+      </c>
+      <c r="F201" t="s">
         <v>387</v>
-      </c>
-      <c r="F201" t="s">
-        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8035,10 +8032,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>388</v>
+      </c>
+      <c r="F202" t="s">
         <v>389</v>
-      </c>
-      <c r="F202" t="s">
-        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8064,10 +8061,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>390</v>
+      </c>
+      <c r="F203" t="s">
         <v>391</v>
-      </c>
-      <c r="F203" t="s">
-        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8093,10 +8090,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>392</v>
+      </c>
+      <c r="F204" t="s">
         <v>393</v>
-      </c>
-      <c r="F204" t="s">
-        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8122,10 +8119,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>394</v>
+      </c>
+      <c r="F205" t="s">
         <v>395</v>
-      </c>
-      <c r="F205" t="s">
-        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8151,10 +8148,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>396</v>
+      </c>
+      <c r="F206" t="s">
         <v>397</v>
-      </c>
-      <c r="F206" t="s">
-        <v>398</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8180,10 +8177,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>398</v>
+      </c>
+      <c r="F207" t="s">
         <v>399</v>
-      </c>
-      <c r="F207" t="s">
-        <v>400</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8209,10 +8206,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>400</v>
+      </c>
+      <c r="F208" t="s">
         <v>401</v>
-      </c>
-      <c r="F208" t="s">
-        <v>402</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8238,10 +8235,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>402</v>
+      </c>
+      <c r="F209" t="s">
         <v>403</v>
-      </c>
-      <c r="F209" t="s">
-        <v>404</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8267,10 +8264,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>404</v>
+      </c>
+      <c r="F210" t="s">
         <v>405</v>
-      </c>
-      <c r="F210" t="s">
-        <v>406</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8296,10 +8293,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>406</v>
+      </c>
+      <c r="F211" t="s">
         <v>407</v>
-      </c>
-      <c r="F211" t="s">
-        <v>408</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8325,10 +8322,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>408</v>
+      </c>
+      <c r="F212" t="s">
         <v>409</v>
-      </c>
-      <c r="F212" t="s">
-        <v>410</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8354,10 +8351,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>410</v>
+      </c>
+      <c r="F213" t="s">
         <v>411</v>
-      </c>
-      <c r="F213" t="s">
-        <v>412</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8383,10 +8380,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>412</v>
+      </c>
+      <c r="F214" t="s">
         <v>413</v>
-      </c>
-      <c r="F214" t="s">
-        <v>414</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8412,10 +8409,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>414</v>
+      </c>
+      <c r="F215" t="s">
         <v>415</v>
-      </c>
-      <c r="F215" t="s">
-        <v>416</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8441,10 +8438,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>416</v>
+      </c>
+      <c r="F216" t="s">
         <v>417</v>
-      </c>
-      <c r="F216" t="s">
-        <v>418</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8470,10 +8467,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>418</v>
+      </c>
+      <c r="F217" t="s">
         <v>419</v>
-      </c>
-      <c r="F217" t="s">
-        <v>420</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8499,10 +8496,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>420</v>
+      </c>
+      <c r="F218" t="s">
         <v>421</v>
-      </c>
-      <c r="F218" t="s">
-        <v>422</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8528,10 +8525,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>422</v>
+      </c>
+      <c r="F219" t="s">
         <v>423</v>
-      </c>
-      <c r="F219" t="s">
-        <v>424</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8557,10 +8554,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>424</v>
+      </c>
+      <c r="F220" t="s">
         <v>425</v>
-      </c>
-      <c r="F220" t="s">
-        <v>426</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8586,10 +8583,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>426</v>
+      </c>
+      <c r="F221" t="s">
         <v>427</v>
-      </c>
-      <c r="F221" t="s">
-        <v>428</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8615,10 +8612,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>428</v>
+      </c>
+      <c r="F222" t="s">
         <v>429</v>
-      </c>
-      <c r="F222" t="s">
-        <v>430</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -8644,10 +8641,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>430</v>
+      </c>
+      <c r="F223" t="s">
         <v>431</v>
-      </c>
-      <c r="F223" t="s">
-        <v>432</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8673,10 +8670,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>432</v>
+      </c>
+      <c r="F224" t="s">
         <v>433</v>
-      </c>
-      <c r="F224" t="s">
-        <v>434</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8702,10 +8699,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>434</v>
+      </c>
+      <c r="F225" t="s">
         <v>435</v>
-      </c>
-      <c r="F225" t="s">
-        <v>436</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8731,10 +8728,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>436</v>
+      </c>
+      <c r="F226" t="s">
         <v>437</v>
-      </c>
-      <c r="F226" t="s">
-        <v>438</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -8760,10 +8757,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>438</v>
+      </c>
+      <c r="F227" t="s">
         <v>439</v>
-      </c>
-      <c r="F227" t="s">
-        <v>440</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8789,10 +8786,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>440</v>
+      </c>
+      <c r="F228" t="s">
         <v>441</v>
-      </c>
-      <c r="F228" t="s">
-        <v>442</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8818,10 +8815,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>352</v>
+      </c>
+      <c r="F229" t="s">
         <v>353</v>
-      </c>
-      <c r="F229" t="s">
-        <v>354</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8847,10 +8844,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>442</v>
+      </c>
+      <c r="F230" t="s">
         <v>443</v>
-      </c>
-      <c r="F230" t="s">
-        <v>444</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8876,10 +8873,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>444</v>
+      </c>
+      <c r="F231" t="s">
         <v>445</v>
-      </c>
-      <c r="F231" t="s">
-        <v>446</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -8905,10 +8902,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>446</v>
+      </c>
+      <c r="F232" t="s">
         <v>447</v>
-      </c>
-      <c r="F232" t="s">
-        <v>448</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -8934,10 +8931,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>448</v>
+      </c>
+      <c r="F233" t="s">
         <v>449</v>
-      </c>
-      <c r="F233" t="s">
-        <v>450</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8963,10 +8960,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>450</v>
+      </c>
+      <c r="F234" t="s">
         <v>451</v>
-      </c>
-      <c r="F234" t="s">
-        <v>452</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8992,10 +8989,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>452</v>
+      </c>
+      <c r="F235" t="s">
         <v>453</v>
-      </c>
-      <c r="F235" t="s">
-        <v>454</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9021,10 +9018,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>454</v>
+      </c>
+      <c r="F236" t="s">
         <v>455</v>
-      </c>
-      <c r="F236" t="s">
-        <v>456</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9050,10 +9047,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>456</v>
+      </c>
+      <c r="F237" t="s">
         <v>457</v>
-      </c>
-      <c r="F237" t="s">
-        <v>458</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9079,10 +9076,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>458</v>
+      </c>
+      <c r="F238" t="s">
         <v>459</v>
-      </c>
-      <c r="F238" t="s">
-        <v>460</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9108,10 +9105,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>460</v>
+      </c>
+      <c r="F239" t="s">
         <v>461</v>
-      </c>
-      <c r="F239" t="s">
-        <v>462</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9137,10 +9134,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>462</v>
+      </c>
+      <c r="F240" t="s">
         <v>463</v>
-      </c>
-      <c r="F240" t="s">
-        <v>464</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9166,10 +9163,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>464</v>
+      </c>
+      <c r="F241" t="s">
         <v>465</v>
-      </c>
-      <c r="F241" t="s">
-        <v>466</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9195,10 +9192,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>466</v>
+      </c>
+      <c r="F242" t="s">
         <v>467</v>
-      </c>
-      <c r="F242" t="s">
-        <v>468</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9224,10 +9221,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>468</v>
+      </c>
+      <c r="F243" t="s">
         <v>469</v>
-      </c>
-      <c r="F243" t="s">
-        <v>470</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9253,10 +9250,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>470</v>
+      </c>
+      <c r="F244" t="s">
         <v>471</v>
-      </c>
-      <c r="F244" t="s">
-        <v>472</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9282,10 +9279,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>472</v>
+      </c>
+      <c r="F245" t="s">
         <v>473</v>
-      </c>
-      <c r="F245" t="s">
-        <v>474</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9311,10 +9308,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>474</v>
+      </c>
+      <c r="F246" t="s">
         <v>475</v>
-      </c>
-      <c r="F246" t="s">
-        <v>476</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9340,10 +9337,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>476</v>
+      </c>
+      <c r="F247" t="s">
         <v>477</v>
-      </c>
-      <c r="F247" t="s">
-        <v>478</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9369,10 +9366,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>478</v>
+      </c>
+      <c r="F248" t="s">
         <v>479</v>
-      </c>
-      <c r="F248" t="s">
-        <v>480</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9398,10 +9395,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>480</v>
+      </c>
+      <c r="F249" t="s">
         <v>481</v>
-      </c>
-      <c r="F249" t="s">
-        <v>482</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9427,10 +9424,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>482</v>
+      </c>
+      <c r="F250" t="s">
         <v>483</v>
-      </c>
-      <c r="F250" t="s">
-        <v>484</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9456,10 +9453,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>484</v>
+      </c>
+      <c r="F251" t="s">
         <v>485</v>
-      </c>
-      <c r="F251" t="s">
-        <v>486</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9485,10 +9482,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>486</v>
+      </c>
+      <c r="F252" t="s">
         <v>487</v>
-      </c>
-      <c r="F252" t="s">
-        <v>488</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9514,10 +9511,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>488</v>
+      </c>
+      <c r="F253" t="s">
         <v>489</v>
-      </c>
-      <c r="F253" t="s">
-        <v>490</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9543,10 +9540,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>490</v>
+      </c>
+      <c r="F254" t="s">
         <v>491</v>
-      </c>
-      <c r="F254" t="s">
-        <v>492</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9572,10 +9569,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>492</v>
+      </c>
+      <c r="F255" t="s">
         <v>493</v>
-      </c>
-      <c r="F255" t="s">
-        <v>494</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9601,10 +9598,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>494</v>
+      </c>
+      <c r="F256" t="s">
         <v>495</v>
-      </c>
-      <c r="F256" t="s">
-        <v>496</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9630,10 +9627,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>496</v>
+      </c>
+      <c r="F257" t="s">
         <v>497</v>
-      </c>
-      <c r="F257" t="s">
-        <v>498</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9659,10 +9656,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>498</v>
+      </c>
+      <c r="F258" t="s">
         <v>499</v>
-      </c>
-      <c r="F258" t="s">
-        <v>500</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9688,10 +9685,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>500</v>
+      </c>
+      <c r="F259" t="s">
         <v>501</v>
-      </c>
-      <c r="F259" t="s">
-        <v>502</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9717,10 +9714,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>502</v>
+      </c>
+      <c r="F260" t="s">
         <v>503</v>
-      </c>
-      <c r="F260" t="s">
-        <v>504</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9746,10 +9743,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>504</v>
+      </c>
+      <c r="F261" t="s">
         <v>505</v>
-      </c>
-      <c r="F261" t="s">
-        <v>506</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9775,10 +9772,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>506</v>
+      </c>
+      <c r="F262" t="s">
         <v>507</v>
-      </c>
-      <c r="F262" t="s">
-        <v>508</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9804,10 +9801,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>508</v>
+      </c>
+      <c r="F263" t="s">
         <v>509</v>
-      </c>
-      <c r="F263" t="s">
-        <v>510</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9833,10 +9830,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>510</v>
+      </c>
+      <c r="F264" t="s">
         <v>511</v>
-      </c>
-      <c r="F264" t="s">
-        <v>512</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9862,10 +9859,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>512</v>
+      </c>
+      <c r="F265" t="s">
         <v>513</v>
-      </c>
-      <c r="F265" t="s">
-        <v>514</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9891,10 +9888,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>514</v>
+      </c>
+      <c r="F266" t="s">
         <v>515</v>
-      </c>
-      <c r="F266" t="s">
-        <v>516</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9920,10 +9917,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>516</v>
+      </c>
+      <c r="F267" t="s">
         <v>517</v>
-      </c>
-      <c r="F267" t="s">
-        <v>518</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9949,10 +9946,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>518</v>
+      </c>
+      <c r="F268" t="s">
         <v>519</v>
-      </c>
-      <c r="F268" t="s">
-        <v>520</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9978,10 +9975,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>520</v>
+      </c>
+      <c r="F269" t="s">
         <v>521</v>
-      </c>
-      <c r="F269" t="s">
-        <v>522</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10007,10 +10004,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>522</v>
+      </c>
+      <c r="F270" t="s">
         <v>523</v>
-      </c>
-      <c r="F270" t="s">
-        <v>524</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10036,10 +10033,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>524</v>
+      </c>
+      <c r="F271" t="s">
         <v>525</v>
-      </c>
-      <c r="F271" t="s">
-        <v>526</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10065,10 +10062,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>526</v>
+      </c>
+      <c r="F272" t="s">
         <v>527</v>
-      </c>
-      <c r="F272" t="s">
-        <v>528</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10094,10 +10091,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>528</v>
+      </c>
+      <c r="F273" t="s">
         <v>529</v>
-      </c>
-      <c r="F273" t="s">
-        <v>530</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -10123,10 +10120,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>530</v>
+      </c>
+      <c r="F274" t="s">
         <v>531</v>
-      </c>
-      <c r="F274" t="s">
-        <v>532</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10152,10 +10149,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>532</v>
+      </c>
+      <c r="F275" t="s">
         <v>533</v>
-      </c>
-      <c r="F275" t="s">
-        <v>534</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10181,10 +10178,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>534</v>
+      </c>
+      <c r="F276" t="s">
         <v>535</v>
-      </c>
-      <c r="F276" t="s">
-        <v>536</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10210,10 +10207,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>536</v>
+      </c>
+      <c r="F277" t="s">
         <v>537</v>
-      </c>
-      <c r="F277" t="s">
-        <v>538</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10239,10 +10236,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>538</v>
+      </c>
+      <c r="F278" t="s">
         <v>539</v>
-      </c>
-      <c r="F278" t="s">
-        <v>540</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10268,10 +10265,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>540</v>
+      </c>
+      <c r="F279" t="s">
         <v>541</v>
-      </c>
-      <c r="F279" t="s">
-        <v>542</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10297,10 +10294,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>542</v>
+      </c>
+      <c r="F280" t="s">
         <v>543</v>
-      </c>
-      <c r="F280" t="s">
-        <v>544</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10326,10 +10323,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>544</v>
+      </c>
+      <c r="F281" t="s">
         <v>545</v>
-      </c>
-      <c r="F281" t="s">
-        <v>546</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10355,10 +10352,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>546</v>
+      </c>
+      <c r="F282" t="s">
         <v>547</v>
-      </c>
-      <c r="F282" t="s">
-        <v>548</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10384,10 +10381,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>548</v>
+      </c>
+      <c r="F283" t="s">
         <v>549</v>
-      </c>
-      <c r="F283" t="s">
-        <v>550</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10413,10 +10410,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>550</v>
+      </c>
+      <c r="F284" t="s">
         <v>551</v>
-      </c>
-      <c r="F284" t="s">
-        <v>552</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10442,10 +10439,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>552</v>
+      </c>
+      <c r="F285" t="s">
         <v>553</v>
-      </c>
-      <c r="F285" t="s">
-        <v>554</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10471,10 +10468,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>554</v>
+      </c>
+      <c r="F286" t="s">
         <v>555</v>
-      </c>
-      <c r="F286" t="s">
-        <v>556</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10500,10 +10497,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>556</v>
+      </c>
+      <c r="F287" t="s">
         <v>557</v>
-      </c>
-      <c r="F287" t="s">
-        <v>558</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10529,10 +10526,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>558</v>
+      </c>
+      <c r="F288" t="s">
         <v>559</v>
-      </c>
-      <c r="F288" t="s">
-        <v>560</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10558,10 +10555,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>560</v>
+      </c>
+      <c r="F289" t="s">
         <v>561</v>
-      </c>
-      <c r="F289" t="s">
-        <v>562</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10587,10 +10584,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>562</v>
+      </c>
+      <c r="F290" t="s">
         <v>563</v>
-      </c>
-      <c r="F290" t="s">
-        <v>564</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10616,10 +10613,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>564</v>
+      </c>
+      <c r="F291" t="s">
         <v>565</v>
-      </c>
-      <c r="F291" t="s">
-        <v>566</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10645,10 +10642,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>566</v>
+      </c>
+      <c r="F292" t="s">
         <v>567</v>
-      </c>
-      <c r="F292" t="s">
-        <v>568</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10674,10 +10671,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>568</v>
+      </c>
+      <c r="F293" t="s">
         <v>569</v>
-      </c>
-      <c r="F293" t="s">
-        <v>570</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -10703,10 +10700,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>426</v>
+      </c>
+      <c r="F294" t="s">
         <v>427</v>
-      </c>
-      <c r="F294" t="s">
-        <v>428</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10732,10 +10729,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>570</v>
+      </c>
+      <c r="F295" t="s">
         <v>571</v>
-      </c>
-      <c r="F295" t="s">
-        <v>572</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10761,10 +10758,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>572</v>
+      </c>
+      <c r="F296" t="s">
         <v>573</v>
-      </c>
-      <c r="F296" t="s">
-        <v>574</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10790,10 +10787,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>574</v>
+      </c>
+      <c r="F297" t="s">
         <v>575</v>
-      </c>
-      <c r="F297" t="s">
-        <v>576</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10819,10 +10816,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>576</v>
+      </c>
+      <c r="F298" t="s">
         <v>577</v>
-      </c>
-      <c r="F298" t="s">
-        <v>578</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10848,10 +10845,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>578</v>
+      </c>
+      <c r="F299" t="s">
         <v>579</v>
-      </c>
-      <c r="F299" t="s">
-        <v>580</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10877,10 +10874,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>580</v>
+      </c>
+      <c r="F300" t="s">
         <v>581</v>
-      </c>
-      <c r="F300" t="s">
-        <v>582</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10906,10 +10903,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
+        <v>582</v>
+      </c>
+      <c r="F301" t="s">
         <v>583</v>
-      </c>
-      <c r="F301" t="s">
-        <v>584</v>
       </c>
       <c r="G301" t="n">
         <v>3</v>
@@ -10935,10 +10932,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>584</v>
+      </c>
+      <c r="F302" t="s">
         <v>585</v>
-      </c>
-      <c r="F302" t="s">
-        <v>586</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10964,10 +10961,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>586</v>
+      </c>
+      <c r="F303" t="s">
         <v>587</v>
-      </c>
-      <c r="F303" t="s">
-        <v>588</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -10993,10 +10990,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
+        <v>588</v>
+      </c>
+      <c r="F304" t="s">
         <v>589</v>
-      </c>
-      <c r="F304" t="s">
-        <v>590</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11022,10 +11019,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
+        <v>590</v>
+      </c>
+      <c r="F305" t="s">
         <v>591</v>
-      </c>
-      <c r="F305" t="s">
-        <v>592</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11051,10 +11048,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>592</v>
+      </c>
+      <c r="F306" t="s">
         <v>593</v>
-      </c>
-      <c r="F306" t="s">
-        <v>594</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11080,10 +11077,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>594</v>
+      </c>
+      <c r="F307" t="s">
         <v>595</v>
-      </c>
-      <c r="F307" t="s">
-        <v>596</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11109,10 +11106,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>596</v>
+      </c>
+      <c r="F308" t="s">
         <v>597</v>
-      </c>
-      <c r="F308" t="s">
-        <v>598</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11138,10 +11135,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
+        <v>598</v>
+      </c>
+      <c r="F309" t="s">
         <v>599</v>
-      </c>
-      <c r="F309" t="s">
-        <v>600</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11167,10 +11164,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
+        <v>600</v>
+      </c>
+      <c r="F310" t="s">
         <v>601</v>
-      </c>
-      <c r="F310" t="s">
-        <v>602</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -11196,10 +11193,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
+        <v>602</v>
+      </c>
+      <c r="F311" t="s">
         <v>603</v>
-      </c>
-      <c r="F311" t="s">
-        <v>604</v>
       </c>
       <c r="G311" t="n">
         <v>9</v>
@@ -11225,10 +11222,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F312" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -11254,10 +11251,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
+        <v>605</v>
+      </c>
+      <c r="F313" t="s">
         <v>606</v>
-      </c>
-      <c r="F313" t="s">
-        <v>607</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
